--- a/Hydro/data/plantas.xlsx
+++ b/Hydro/data/plantas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Chicoasén</t>
   </si>
@@ -31,6 +31,21 @@
     <t xml:space="preserve">Belisario Dominguez (Angostura)</t>
   </si>
   <si>
+    <t xml:space="preserve">Angel Albino Corzo (Peñitas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Cecilio Del Valle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bombana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamazulapan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schpoina</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infiernillo</t>
   </si>
   <si>
@@ -49,22 +64,115 @@
     <t xml:space="preserve">Valentín Goméz Farias (Agua Prieta)</t>
   </si>
   <si>
+    <t xml:space="preserve">Cupatitzio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gral. Manuel M. Dieguez (Santa Rosa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Cóbano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colimilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Platanal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puente Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zumpimito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Juntas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis M. Rojas (Intermedia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bartolinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itzicuáro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Luis Donaldo Colosio Murrieta (Huites)</t>
   </si>
   <si>
+    <t xml:space="preserve">Pdte. Plutarco Elias Calles (El Novillo)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Profr. Raúl J. Marsal C. (Comedero)</t>
   </si>
   <si>
+    <t xml:space="preserve">Bacurato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 De Septiembre (El Fuerte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oviachic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gral. Salvador Alvarado (Sanalona)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mocuzari</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ing. Carlos Ramirez Ulloa (El Caracol)</t>
   </si>
   <si>
     <t xml:space="preserve">Ing. Fernando Hiriart Valderrama (Zimapán)</t>
   </si>
   <si>
+    <t xml:space="preserve">El Durazno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ixtapantongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tingambato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gral. Ambrosio Figueroa (La Venta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colotlipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portezuelo I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portezuelo II</t>
+  </si>
+  <si>
     <t xml:space="preserve">Temascal</t>
   </si>
   <si>
     <t xml:space="preserve">Mazatepec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxpango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chilapan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camilo Arriaga (El Salto)</t>
   </si>
 </sst>
 </file>
@@ -172,16 +280,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -257,6 +365,186 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
